--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/23_Çankırı_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/23_Çankırı_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7463578-F2D5-4195-BB43-9A342C2BE750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC3DB443-BF0E-4D75-8CBC-4A4D8DAAC22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{F3DB958F-01C8-479C-9643-ABEFDDA64F21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{3733C4D1-7175-46AF-90B0-C7F2CA0E8E1A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B545FD76-A84E-48FF-A2E4-9EC448B88A57}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{6FFF6FA2-B7FC-45AD-90EF-9ECD6C87980B}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{A4B27164-F1B3-45B7-B7F6-EB99BF18DE61}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{CA6F15B9-9CCE-400E-8A92-42FFDF048093}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{81C1C57D-7873-47B9-8BC9-23F70EAE715A}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{01E587F1-5385-4648-A90E-2C7ACD0D9B53}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{0E3B3716-C472-479D-A7FA-153321E0FC9E}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{91F0E1CA-C88A-4A84-A064-99F724B9D4B6}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{5AD4CEB0-C09E-4CD6-8749-A2FFA475CA92}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{32BA6201-82A1-41D6-932E-3CA91010D352}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{4F859A07-CA42-4B9D-8FE6-8546C48C7338}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{F149C507-851D-46CE-9B4B-CDA4E5A8FB99}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{ED8C204D-C4BA-4FB8-A389-A339989B4E5F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{86E68C4E-1DA4-47D1-A000-100F1A113C76}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F369854-5CF3-4B35-9266-EB871F70261C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97E85E6-BF6B-4C38-94A4-26F7A08AAA39}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2522,7 +2522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A8928D-6BD0-4795-A16A-949CE8C4D0AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C08413-CC02-47D7-BEF9-30F04BE2B713}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3769,7 +3769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5C6B81-E8DE-4DB6-825A-B0F5A5776A6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986F4C84-B7BB-4478-AC07-99F4201E60D1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5012,7 +5012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF2476F-82C7-41DD-8252-074EC508C13A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B1F799-E65B-4B36-8E7E-890369A3AA54}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6243,7 +6243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AFCD17-ABA7-4C59-8ED1-1F6C390B712C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF484300-A2D8-4EC9-A5A4-B8ED6903DD47}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7490,7 +7490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B5818E-ABE6-459B-AD7B-37BFC8A08AEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981E494B-8FB3-4E76-B81D-D4FF4EBDFB0F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8737,7 +8737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5C4E14-6C5D-45A9-B9C6-FB36FA9D018D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AA6DC7-EEB4-4B7D-926B-D8141BA3EA93}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9982,7 +9982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B67988D-CC3E-4932-87C8-7152B2DBA0B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9F4461-B1DD-4D41-ABEB-2491E00F79CC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11227,7 +11227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3257398E-8C8F-4AA9-90C7-525BB83034F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854AED1D-1934-40F6-A7C5-611BE4000F7F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12472,7 +12472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D16256-D5BA-43C5-8189-605312C50A8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087E621D-3765-4D42-A77F-7A6D2750B784}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13717,7 +13717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC39E2C2-B45E-4215-8524-61A7F5B85D33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D496B5-A9BC-4C7A-8806-79AB58CA3A9E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14964,7 +14964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232952C1-637B-4C83-9A73-CC7CF01D5B70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98191E84-09B5-4A68-81EB-01264620E34C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
